--- a/テンプレート/【テンプレ】リリース内表 - コピー.xlsx
+++ b/テンプレート/【テンプレ】リリース内表 - コピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1600791-5DE5-4078-AF47-05FBEAC9A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A32BEA3-AEB0-489F-9D4D-64494C465233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15915" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="61">
   <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
@@ -786,6 +786,44 @@
   </si>
   <si>
     <t>ランキング名 (回答者数：x,xxx名)</t>
+  </si>
+  <si>
+    <t>楽天モバイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2025年 オリコン顧客満足度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>R)調査
+携帯キャリア 総合ランキング (回答者数：8,464名)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※上記順位以降はサイトに掲載しております。
+調査主体：株式会社oricon ME（2025年11月1日発表）</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1635,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2153,6 +2191,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2177,6 +2256,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2185,28 +2346,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2221,92 +2379,63 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2338,9 +2467,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2359,52 +2485,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2418,85 +2533,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3084,49 +3140,49 @@
     <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="173"/>
       <c r="B2" s="173"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
       <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="173"/>
       <c r="B3" s="173"/>
       <c r="C3" s="173"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
       <c r="I3" s="173"/>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="188" t="s">
+      <c r="G4" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="189"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="200"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
@@ -3177,11 +3233,11 @@
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
       <c r="B7" s="176"/>
-      <c r="C7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
+      <c r="C7" s="290" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="291" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="19">
         <v>0</v>
@@ -3200,11 +3256,11 @@
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
       <c r="B8" s="176"/>
-      <c r="C8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>20</v>
+      <c r="C8" s="292" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="293" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="21">
         <v>0</v>
@@ -3223,11 +3279,11 @@
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="178"/>
-      <c r="C9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="179" t="s">
-        <v>20</v>
+      <c r="C9" s="294" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="295" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="23">
         <v>0</v>
@@ -3268,23 +3324,54 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="182" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4">
+        <v>66.846626000000001</v>
+      </c>
       <c r="I12" s="180"/>
     </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4">
+        <v>66.548928000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4">
+        <v>66.177816000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="296" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="296" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="296" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:10" s="40" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3384,72 +3471,72 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="140"/>
-      <c r="I2" s="182" t="s">
+      <c r="I2" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="183"/>
+      <c r="J2" s="194"/>
       <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="218" t="s">
+      <c r="M2" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="219"/>
+      <c r="N2" s="210"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
       <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="210" t="s">
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="211"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="221"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
       <c r="E4" s="119"/>
       <c r="F4" s="146"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="223"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="214"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
       <c r="E5" s="71"/>
       <c r="F5" s="141"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="213"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="204"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3461,10 +3548,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="206"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3472,12 +3559,12 @@
     </row>
     <row r="7" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="D7" s="279"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="284"/>
+      <c r="D7" s="182"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
+      <c r="M7" s="219"/>
+      <c r="N7" s="219"/>
       <c r="O7" s="51"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
@@ -3488,51 +3575,51 @@
     <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="73"/>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="279"/>
+      <c r="D8" s="182"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="289" t="s">
+      <c r="H8" s="187"/>
+      <c r="I8" s="191" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="286"/>
+      <c r="J8" s="188"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="220"/>
       <c r="O8" s="96"/>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="191"/>
+      <c r="R8" s="227"/>
+      <c r="S8" s="227"/>
+      <c r="T8" s="228"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="280"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="73"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="287"/>
-      <c r="I9" s="290" t="s">
+      <c r="H9" s="189"/>
+      <c r="I9" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="288"/>
+      <c r="J9" s="190"/>
       <c r="L9" s="100"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="192"/>
-      <c r="S9" s="192"/>
-      <c r="T9" s="193"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="218"/>
     </row>
     <row r="10" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
@@ -3546,10 +3633,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="195"/>
+      <c r="F10" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="239"/>
       <c r="H10" s="55" t="s">
         <v>12</v>
       </c>
@@ -3563,8 +3650,8 @@
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="102"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="197"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="216"/>
       <c r="R10" s="103"/>
       <c r="S10" s="103"/>
       <c r="T10" s="103"/>
@@ -3717,11 +3804,11 @@
     </row>
     <row r="15" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="194"/>
       <c r="E15" s="25"/>
       <c r="F15" s="37"/>
       <c r="G15" s="32">
@@ -3754,11 +3841,11 @@
       <c r="E16" s="25"/>
       <c r="F16" s="87"/>
       <c r="G16" s="88"/>
-      <c r="H16" s="224" t="s">
+      <c r="H16" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="225"/>
-      <c r="J16" s="226"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="224"/>
       <c r="L16" s="96"/>
       <c r="M16" s="123"/>
       <c r="N16" s="104"/>
@@ -3793,8 +3880,8 @@
     <row r="18" spans="1:20" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="96"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="207"/>
       <c r="E18" s="142"/>
       <c r="F18" s="142"/>
       <c r="G18" s="142"/>
@@ -3813,13 +3900,13 @@
     </row>
     <row r="19" spans="1:20" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
       <c r="E19" s="25"/>
       <c r="F19" s="87"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="194"/>
       <c r="L19" s="96"/>
       <c r="M19" s="123"/>
       <c r="N19" s="104"/>
@@ -3835,10 +3922,10 @@
       <c r="D20" s="144"/>
       <c r="E20" s="119"/>
       <c r="F20" s="87"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="106"/>
@@ -3855,10 +3942,10 @@
       <c r="D21" s="51"/>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="206"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="107"/>
@@ -3878,12 +3965,12 @@
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="200"/>
+      <c r="O22" s="235"/>
+      <c r="P22" s="236"/>
+      <c r="Q22" s="236"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
@@ -3896,8 +3983,8 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="201"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
       <c r="O23" s="51"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
@@ -3913,18 +4000,18 @@
       <c r="E24" s="96"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="191"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="228"/>
       <c r="L24" s="99"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="220"/>
       <c r="O24" s="96"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="191"/>
+      <c r="R24" s="227"/>
+      <c r="S24" s="227"/>
+      <c r="T24" s="228"/>
     </row>
     <row r="25" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -3934,18 +4021,18 @@
       <c r="E25" s="100"/>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="193"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="218"/>
       <c r="L25" s="100"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
       <c r="O25" s="100"/>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="192"/>
-      <c r="T25" s="193"/>
+      <c r="R25" s="217"/>
+      <c r="S25" s="217"/>
+      <c r="T25" s="218"/>
     </row>
     <row r="26" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
@@ -3953,8 +4040,8 @@
       <c r="C26" s="47"/>
       <c r="D26" s="86"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="197"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="216"/>
       <c r="H26" s="103"/>
       <c r="I26" s="103"/>
       <c r="J26" s="103"/>
@@ -3962,8 +4049,8 @@
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="102"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="197"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="216"/>
       <c r="R26" s="103"/>
       <c r="S26" s="103"/>
       <c r="T26" s="103"/>
@@ -4033,9 +4120,9 @@
     </row>
     <row r="30" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
+      <c r="B30" s="229"/>
+      <c r="C30" s="230"/>
+      <c r="D30" s="231"/>
       <c r="E30" s="104"/>
       <c r="F30" s="87"/>
       <c r="G30" s="88"/>
@@ -4059,10 +4146,10 @@
       <c r="D31" s="107"/>
       <c r="E31" s="104"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="205"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="230"/>
       <c r="K31" s="111"/>
       <c r="L31" s="85"/>
       <c r="M31" s="47"/>
@@ -4113,14 +4200,14 @@
     </row>
     <row r="34" spans="1:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="58"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="209"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="233"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="234"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
       <c r="N34" s="51"/>
@@ -4134,8 +4221,8 @@
     <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="99"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="58"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
@@ -4143,8 +4230,8 @@
       <c r="I35" s="97"/>
       <c r="J35" s="109"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="201"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="219"/>
       <c r="O35" s="58"/>
       <c r="P35" s="97"/>
       <c r="Q35" s="97"/>
@@ -4155,23 +4242,23 @@
     <row r="36" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="100"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="96"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="191"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="227"/>
+      <c r="J36" s="228"/>
       <c r="L36" s="99"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
+      <c r="M36" s="220"/>
+      <c r="N36" s="220"/>
       <c r="O36" s="96"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
-      <c r="R36" s="190"/>
-      <c r="S36" s="190"/>
-      <c r="T36" s="191"/>
+      <c r="R36" s="227"/>
+      <c r="S36" s="227"/>
+      <c r="T36" s="228"/>
     </row>
     <row r="37" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -4181,18 +4268,18 @@
       <c r="E37" s="100"/>
       <c r="F37" s="101"/>
       <c r="G37" s="101"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="193"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="217"/>
+      <c r="J37" s="218"/>
       <c r="L37" s="100"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="203"/>
+      <c r="M37" s="221"/>
+      <c r="N37" s="221"/>
       <c r="O37" s="100"/>
       <c r="P37" s="101"/>
       <c r="Q37" s="101"/>
-      <c r="R37" s="192"/>
-      <c r="S37" s="192"/>
-      <c r="T37" s="193"/>
+      <c r="R37" s="217"/>
+      <c r="S37" s="217"/>
+      <c r="T37" s="218"/>
     </row>
     <row r="38" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
@@ -4200,8 +4287,8 @@
       <c r="C38" s="50"/>
       <c r="D38" s="86"/>
       <c r="E38" s="102"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="197"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="216"/>
       <c r="H38" s="103"/>
       <c r="I38" s="103"/>
       <c r="J38" s="103"/>
@@ -4209,8 +4296,8 @@
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
       <c r="O38" s="102"/>
-      <c r="P38" s="196"/>
-      <c r="Q38" s="197"/>
+      <c r="P38" s="215"/>
+      <c r="Q38" s="216"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
       <c r="T38" s="103"/>
@@ -4369,8 +4456,8 @@
     </row>
     <row r="46" spans="1:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="201"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="219"/>
       <c r="E46" s="51"/>
       <c r="F46" s="71"/>
       <c r="G46" s="71"/>
@@ -4380,18 +4467,18 @@
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="198"/>
-      <c r="P46" s="199"/>
-      <c r="Q46" s="199"/>
-      <c r="R46" s="199"/>
-      <c r="S46" s="199"/>
-      <c r="T46" s="200"/>
+      <c r="O46" s="235"/>
+      <c r="P46" s="236"/>
+      <c r="Q46" s="236"/>
+      <c r="R46" s="236"/>
+      <c r="S46" s="236"/>
+      <c r="T46" s="237"/>
       <c r="U46" s="51"/>
     </row>
     <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="99"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
       <c r="E47" s="51"/>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -4399,8 +4486,8 @@
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="201"/>
-      <c r="N47" s="201"/>
+      <c r="M47" s="219"/>
+      <c r="N47" s="219"/>
       <c r="O47" s="51"/>
       <c r="P47" s="71"/>
       <c r="Q47" s="71"/>
@@ -4412,24 +4499,24 @@
     <row r="48" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="100"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="221"/>
       <c r="E48" s="96"/>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="190"/>
-      <c r="J48" s="191"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="227"/>
+      <c r="J48" s="228"/>
       <c r="K48" s="2"/>
       <c r="L48" s="99"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="202"/>
+      <c r="M48" s="220"/>
+      <c r="N48" s="220"/>
       <c r="O48" s="96"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
-      <c r="R48" s="190"/>
-      <c r="S48" s="190"/>
-      <c r="T48" s="191"/>
+      <c r="R48" s="227"/>
+      <c r="S48" s="227"/>
+      <c r="T48" s="228"/>
       <c r="U48" s="51"/>
     </row>
     <row r="49" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4440,19 +4527,19 @@
       <c r="E49" s="100"/>
       <c r="F49" s="101"/>
       <c r="G49" s="101"/>
-      <c r="H49" s="192"/>
-      <c r="I49" s="192"/>
-      <c r="J49" s="193"/>
+      <c r="H49" s="217"/>
+      <c r="I49" s="217"/>
+      <c r="J49" s="218"/>
       <c r="K49" s="2"/>
       <c r="L49" s="100"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="203"/>
+      <c r="M49" s="221"/>
+      <c r="N49" s="221"/>
       <c r="O49" s="100"/>
       <c r="P49" s="101"/>
       <c r="Q49" s="101"/>
-      <c r="R49" s="192"/>
-      <c r="S49" s="192"/>
-      <c r="T49" s="193"/>
+      <c r="R49" s="217"/>
+      <c r="S49" s="217"/>
+      <c r="T49" s="218"/>
       <c r="U49" s="51"/>
     </row>
     <row r="50" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4461,8 +4548,8 @@
       <c r="C50" s="47"/>
       <c r="D50" s="86"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="197"/>
+      <c r="F50" s="215"/>
+      <c r="G50" s="216"/>
       <c r="H50" s="103"/>
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
@@ -4471,8 +4558,8 @@
       <c r="M50" s="49"/>
       <c r="N50" s="49"/>
       <c r="O50" s="102"/>
-      <c r="P50" s="196"/>
-      <c r="Q50" s="197"/>
+      <c r="P50" s="215"/>
+      <c r="Q50" s="216"/>
       <c r="R50" s="103"/>
       <c r="S50" s="103"/>
       <c r="T50" s="103"/>
@@ -4702,18 +4789,21 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="G3:J6"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="M2:N4"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="M7:N9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="O46:T46"/>
+    <mergeCell ref="M35:N37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C46:D48"/>
@@ -4730,21 +4820,18 @@
     <mergeCell ref="M23:N25"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="O46:T46"/>
-    <mergeCell ref="M35:N37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="G3:J6"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="M7:N9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="G20:J21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F2:F3 F11:F17">
@@ -4899,13 +4986,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="148"/>
-      <c r="F2" s="235" t="s">
+      <c r="F2" s="264" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="237"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="266"/>
       <c r="K2" s="149"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -4913,17 +5000,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="245"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="6"/>
       <c r="E3" s="148"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="268"/>
       <c r="K3" s="149"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -4935,11 +5022,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="148"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="243"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="271"/>
       <c r="K4" s="149"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -5425,13 +5512,13 @@
       <c r="I19" s="117"/>
       <c r="J19" s="115"/>
       <c r="K19" s="126"/>
-      <c r="L19" s="229" t="s">
+      <c r="L19" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="229"/>
-      <c r="N19" s="229"/>
-      <c r="O19" s="229"/>
-      <c r="P19" s="230"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="258"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="259"/>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -5476,14 +5563,14 @@
     </row>
     <row r="23" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="67"/>
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="247"/>
+      <c r="C23" s="243"/>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="247"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="243"/>
       <c r="H23" s="68"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
@@ -5519,8 +5606,8 @@
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="66"/>
-      <c r="V24" s="248"/>
-      <c r="W24" s="249"/>
+      <c r="V24" s="240"/>
+      <c r="W24" s="241"/>
       <c r="X24" s="68"/>
     </row>
     <row r="25" spans="1:24" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5703,10 +5790,10 @@
     </row>
     <row r="29" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="246" t="s">
+      <c r="B29" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="247"/>
+      <c r="C29" s="243"/>
       <c r="D29" s="104"/>
       <c r="E29" s="58"/>
       <c r="F29" s="46"/>
@@ -5950,11 +6037,11 @@
       <c r="K35" s="50"/>
       <c r="L35" s="86"/>
       <c r="M35" s="48"/>
-      <c r="N35" s="231" t="s">
+      <c r="N35" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="232"/>
-      <c r="P35" s="233"/>
+      <c r="O35" s="261"/>
+      <c r="P35" s="262"/>
       <c r="R35" s="46"/>
       <c r="S35" s="50"/>
       <c r="T35" s="48"/>
@@ -5994,9 +6081,9 @@
       <c r="K37" s="139"/>
       <c r="L37" s="118"/>
       <c r="M37" s="118"/>
-      <c r="N37" s="234"/>
-      <c r="O37" s="234"/>
-      <c r="P37" s="234"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="263"/>
       <c r="Q37" s="63"/>
       <c r="R37" s="63"/>
       <c r="S37" s="63"/>
@@ -6013,28 +6100,28 @@
       <c r="H38" s="52"/>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="259"/>
-      <c r="N38" s="259"/>
-      <c r="O38" s="259"/>
-      <c r="P38" s="260"/>
+      <c r="L38" s="252"/>
+      <c r="M38" s="253"/>
+      <c r="N38" s="253"/>
+      <c r="O38" s="253"/>
+      <c r="P38" s="254"/>
     </row>
     <row r="39" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
-      <c r="B39" s="246"/>
-      <c r="C39" s="247"/>
+      <c r="B39" s="242"/>
+      <c r="C39" s="243"/>
       <c r="D39" s="66"/>
       <c r="E39" s="66"/>
-      <c r="F39" s="246"/>
-      <c r="G39" s="250"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="244"/>
       <c r="I39" s="136"/>
       <c r="J39" s="136"/>
       <c r="K39" s="70"/>
-      <c r="L39" s="261"/>
-      <c r="M39" s="239"/>
-      <c r="N39" s="239"/>
-      <c r="O39" s="239"/>
-      <c r="P39" s="262"/>
+      <c r="L39" s="255"/>
+      <c r="M39" s="256"/>
+      <c r="N39" s="256"/>
+      <c r="O39" s="256"/>
+      <c r="P39" s="257"/>
     </row>
     <row r="40" spans="1:24" s="69" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67"/>
@@ -6053,8 +6140,8 @@
       <c r="N40" s="75"/>
       <c r="O40" s="65"/>
       <c r="P40" s="66"/>
-      <c r="V40" s="248"/>
-      <c r="W40" s="249"/>
+      <c r="V40" s="240"/>
+      <c r="W40" s="241"/>
       <c r="X40" s="68"/>
     </row>
     <row r="41" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6129,13 +6216,13 @@
       <c r="G44" s="47"/>
       <c r="H44" s="86"/>
       <c r="I44" s="48"/>
-      <c r="J44" s="253"/>
-      <c r="K44" s="254"/>
-      <c r="L44" s="255"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="248"/>
+      <c r="L44" s="249"/>
       <c r="M44" s="48"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="254"/>
-      <c r="P44" s="255"/>
+      <c r="N44" s="247"/>
+      <c r="O44" s="248"/>
+      <c r="P44" s="249"/>
       <c r="V44" s="46"/>
       <c r="W44" s="72"/>
       <c r="X44" s="48"/>
@@ -6145,8 +6232,8 @@
       <c r="B45" s="75"/>
       <c r="C45" s="65"/>
       <c r="D45" s="66"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="257"/>
+      <c r="F45" s="250"/>
+      <c r="G45" s="251"/>
       <c r="H45" s="66"/>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
@@ -6218,9 +6305,9 @@
       <c r="C50" s="51"/>
       <c r="D50" s="51"/>
       <c r="E50" s="118"/>
-      <c r="F50" s="251"/>
-      <c r="G50" s="252"/>
-      <c r="H50" s="252"/>
+      <c r="F50" s="245"/>
+      <c r="G50" s="246"/>
+      <c r="H50" s="246"/>
       <c r="J50" s="51"/>
       <c r="K50" s="51"/>
       <c r="L50" s="51"/>
@@ -6241,8 +6328,8 @@
     <row r="52" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="67"/>
       <c r="E52" s="66"/>
-      <c r="F52" s="246"/>
-      <c r="G52" s="250"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="244"/>
       <c r="H52" s="68"/>
       <c r="I52" s="70"/>
       <c r="M52" s="70"/>
@@ -6260,8 +6347,8 @@
       <c r="N53" s="75"/>
       <c r="O53" s="65"/>
       <c r="P53" s="66"/>
-      <c r="V53" s="248"/>
-      <c r="W53" s="249"/>
+      <c r="V53" s="240"/>
+      <c r="W53" s="241"/>
       <c r="X53" s="68"/>
     </row>
     <row r="54" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6354,6 +6441,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="F2:J4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="V24:W24"/>
     <mergeCell ref="V53:W53"/>
     <mergeCell ref="B39:C39"/>
@@ -6365,14 +6460,6 @@
     <mergeCell ref="N44:P44"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="L38:P39"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="F2:J4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6438,13 +6525,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="148"/>
-      <c r="F2" s="235" t="s">
+      <c r="F2" s="264" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="237"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="266"/>
       <c r="K2" s="149"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
@@ -6452,17 +6539,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="245"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="6"/>
       <c r="E3" s="148"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="268"/>
       <c r="K3" s="149"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
@@ -6474,11 +6561,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="148"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="243"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="271"/>
       <c r="K4" s="149"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
@@ -6486,10 +6573,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="32.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="229"/>
+      <c r="C5" s="258"/>
       <c r="D5" s="113"/>
       <c r="E5" s="172"/>
       <c r="F5" s="150"/>
@@ -6527,19 +6614,19 @@
     </row>
     <row r="7" spans="1:21" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="266"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="289"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -6549,23 +6636,23 @@
     </row>
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="265"/>
+      <c r="C8" s="287"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="263" t="s">
+      <c r="F8" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="264"/>
-      <c r="H8" s="265"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="288"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="263" t="s">
+      <c r="J8" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="264"/>
-      <c r="L8" s="265"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="288"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -6747,23 +6834,23 @@
     </row>
     <row r="15" spans="1:21" s="79" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="161"/>
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="286" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="264"/>
-      <c r="D15" s="265"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="288"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="263" t="s">
+      <c r="F15" s="286" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="264"/>
-      <c r="H15" s="265"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="263" t="s">
+      <c r="J15" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="264"/>
-      <c r="L15" s="265"/>
+      <c r="K15" s="287"/>
+      <c r="L15" s="288"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -6929,10 +7016,10 @@
       <c r="H20" s="171"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="267" t="s">
+      <c r="K20" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="229"/>
+      <c r="L20" s="258"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -6941,15 +7028,15 @@
     </row>
     <row r="21" spans="1:21" s="94" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="268"/>
-      <c r="D21" s="268"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="93"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="271"/>
+      <c r="F21" s="282"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="284"/>
       <c r="I21" s="169"/>
       <c r="J21" s="169"/>
       <c r="K21" s="169"/>
@@ -6963,11 +7050,11 @@
     </row>
     <row r="22" spans="1:21" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
-      <c r="B22" s="273" t="s">
+      <c r="B22" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="274"/>
-      <c r="D22" s="274"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -7082,9 +7169,9 @@
     </row>
     <row r="27" spans="1:21" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="164"/>
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
+      <c r="B27" s="285"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="165"/>
       <c r="F27" s="165"/>
       <c r="G27" s="165"/>
@@ -7101,23 +7188,23 @@
     </row>
     <row r="28" spans="1:21" s="79" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="164"/>
-      <c r="B28" s="273" t="s">
+      <c r="B28" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="274"/>
-      <c r="D28" s="274"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="277"/>
       <c r="E28" s="165"/>
       <c r="F28" s="165"/>
       <c r="G28" s="165"/>
       <c r="H28" s="165"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="275"/>
-      <c r="K28" s="276"/>
-      <c r="L28" s="276"/>
+      <c r="J28" s="274"/>
+      <c r="K28" s="275"/>
+      <c r="L28" s="275"/>
       <c r="M28" s="93"/>
-      <c r="N28" s="275"/>
-      <c r="O28" s="276"/>
-      <c r="P28" s="276"/>
+      <c r="N28" s="274"/>
+      <c r="O28" s="275"/>
+      <c r="P28" s="275"/>
       <c r="S28" s="80"/>
       <c r="T28" s="80"/>
     </row>
@@ -7244,11 +7331,11 @@
     </row>
     <row r="34" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="164"/>
-      <c r="B34" s="273" t="s">
+      <c r="B34" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="274"/>
-      <c r="D34" s="277"/>
+      <c r="C34" s="277"/>
+      <c r="D34" s="278"/>
       <c r="E34" s="165"/>
       <c r="F34" s="165"/>
       <c r="G34" s="165"/>
@@ -7338,9 +7425,9 @@
       <c r="K37" s="50"/>
       <c r="L37" s="86"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="231"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="233"/>
+      <c r="N37" s="260"/>
+      <c r="O37" s="261"/>
+      <c r="P37" s="262"/>
       <c r="R37" s="46"/>
       <c r="S37" s="50"/>
       <c r="T37" s="48"/>
@@ -7375,11 +7462,11 @@
     </row>
     <row r="39" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="231" t="s">
+      <c r="B39" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="232"/>
-      <c r="D39" s="278"/>
+      <c r="C39" s="261"/>
+      <c r="D39" s="279"/>
       <c r="E39" s="137"/>
       <c r="F39" s="138"/>
       <c r="G39" s="47"/>
@@ -7389,9 +7476,9 @@
       <c r="K39" s="139"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
-      <c r="N39" s="234"/>
-      <c r="O39" s="234"/>
-      <c r="P39" s="234"/>
+      <c r="N39" s="263"/>
+      <c r="O39" s="263"/>
+      <c r="P39" s="263"/>
       <c r="Q39" s="63"/>
       <c r="R39" s="63"/>
       <c r="S39" s="63"/>
@@ -7413,8 +7500,8 @@
     <row r="41" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="250"/>
+      <c r="F41" s="242"/>
+      <c r="G41" s="244"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
       <c r="M41" s="70"/>
@@ -7432,8 +7519,8 @@
       <c r="N42" s="75"/>
       <c r="O42" s="65"/>
       <c r="P42" s="66"/>
-      <c r="V42" s="248"/>
-      <c r="W42" s="249"/>
+      <c r="V42" s="240"/>
+      <c r="W42" s="241"/>
       <c r="X42" s="68"/>
     </row>
     <row r="43" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7526,20 +7613,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B8:D8"/>
@@ -7550,6 +7623,20 @@
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="J8:L8"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
